--- a/Luban/Configs/Datas/__enums__.xlsx
+++ b/Luban/Configs/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\MiniDesignerConfigsTemplate\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD8894F-029A-4140-BBA8-F8C59CD1DD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E7D7B9-6739-4E38-BE57-9BDE72AC5629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1875" windowWidth="25140" windowHeight="14325" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,30 +35,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>alias</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,42 +55,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最高品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最差品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑色的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>full_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test.ETestQuality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全名(包含模块和名字)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,39 +99,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test.AccessFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WRITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>READ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRUNCATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>READ_WRITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WRITE|READ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否为标志类（即每个枚举项为位标记，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>Pyro</t>
+  </si>
+  <si>
+    <t>Cryo</t>
+  </si>
+  <si>
+    <t>Electro</t>
+  </si>
+  <si>
+    <t>Geo</t>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card.CardType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大怪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +207,13 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -230,9 +240,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -551,94 +565,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="8.25" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -651,108 +667,122 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G11" t="s">
         <v>35</v>
       </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
       <c r="I11">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G12" t="s">
         <v>36</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
         <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Configs/Datas/__enums__.xlsx
+++ b/Luban/Configs/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E7D7B9-6739-4E38-BE57-9BDE72AC5629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5567ED9-5D16-4EFF-80C7-2BBF1DA2CC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="6225" yWindow="0" windowWidth="22695" windowHeight="11205" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,6 +187,146 @@
   </si>
   <si>
     <t>大怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect.EffectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记单位卡类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记Effect类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂Buff类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Draw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect.TargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect.TargetArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mono</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周围目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotEnemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self|Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotSelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss|Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非对手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非自身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self|Boss|Enemy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -576,7 +716,7 @@
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="21.375" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
     <col min="8" max="8" width="11.75" customWidth="1"/>
@@ -667,6 +807,9 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
@@ -753,6 +896,9 @@
       <c r="D11" t="b">
         <v>1</v>
       </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
       <c r="G11" t="s">
         <v>35</v>
       </c>
@@ -783,6 +929,201 @@
       </c>
       <c r="I13">
         <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Configs/Datas/__enums__.xlsx
+++ b/Luban/Configs/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5567ED9-5D16-4EFF-80C7-2BBF1DA2CC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A100CA10-D9EB-49A7-A40B-FC41121B8283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6225" yWindow="0" windowWidth="22695" windowHeight="11205" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +327,26 @@
   </si>
   <si>
     <t>Self|Boss|Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomNotSelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机敌方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss|Enemy|Random</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -718,9 +738,9 @@
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="11.75" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1042,87 +1062,109 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G22" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I22" t="s">
-        <v>69</v>
+        <v>78</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G23" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
         <v>58</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H25" t="s">
         <v>75</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I25" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" t="s">
-        <v>74</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s">
-        <v>59</v>
-      </c>
-      <c r="I26">
+        <v>80</v>
+      </c>
+      <c r="I26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G27" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
         <v>58</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H30" t="s">
         <v>61</v>
       </c>
-      <c r="I28">
+      <c r="I30">
         <v>3</v>
       </c>
     </row>

--- a/Luban/Configs/Datas/__enums__.xlsx
+++ b/Luban/Configs/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A100CA10-D9EB-49A7-A40B-FC41121B8283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4061016F-7D22-4480-98BE-A4C9DE05F549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="975" yWindow="1230" windowWidth="22695" windowHeight="11205" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,6 +347,33 @@
   </si>
   <si>
     <t>Boss|Enemy|Random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill.SkillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Erupt</t>
+  </si>
+  <si>
+    <t>主动技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出场技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,9 +752,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -1168,6 +1195,48 @@
         <v>3</v>
       </c>
     </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>

--- a/Luban/Configs/Datas/__enums__.xlsx
+++ b/Luban/Configs/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4061016F-7D22-4480-98BE-A4C9DE05F549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E05079-D515-4AD0-BDF8-FE793ED1606C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="1230" windowWidth="22695" windowHeight="11205" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="20290" yWindow="1050" windowWidth="22700" windowHeight="11210" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="101">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +104,6 @@
   </si>
   <si>
     <t>是否为标志类（即每个枚举项为位标记，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Element</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -350,10 +346,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skill.SkillType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Erupt</t>
   </si>
   <si>
@@ -374,6 +366,62 @@
   </si>
   <si>
     <t>Passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.Element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect.SkillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect.BuffPropertiesOverrideable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可重载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stories</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LifeCycles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重载层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重载持续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均可重载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stories|LifeCycles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标选择类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标选择范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff重载标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +429,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +447,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -427,7 +483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -437,6 +493,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,16 +811,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
@@ -846,7 +905,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -855,13 +914,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -869,10 +928,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -880,10 +939,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -891,10 +950,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -902,10 +961,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8">
         <v>4</v>
@@ -913,10 +972,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I9">
         <v>5</v>
@@ -924,10 +983,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -935,7 +994,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -944,13 +1003,13 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -958,10 +1017,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -969,10 +1028,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -980,7 +1039,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -989,13 +1048,13 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
         <v>45</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1003,10 +1062,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
         <v>48</v>
-      </c>
-      <c r="H15" t="s">
-        <v>49</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1014,10 +1073,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
         <v>50</v>
-      </c>
-      <c r="H16" t="s">
-        <v>51</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -1025,10 +1084,10 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s">
         <v>52</v>
-      </c>
-      <c r="H17" t="s">
-        <v>53</v>
       </c>
       <c r="I17">
         <v>3</v>
@@ -1036,7 +1095,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -1044,11 +1103,14 @@
       <c r="D18" t="b">
         <v>1</v>
       </c>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1056,10 +1118,10 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1067,10 +1129,10 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -1078,10 +1140,10 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21">
         <v>4</v>
@@ -1089,10 +1151,10 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" t="s">
         <v>77</v>
-      </c>
-      <c r="H22" t="s">
-        <v>78</v>
       </c>
       <c r="I22">
         <v>8</v>
@@ -1100,51 +1162,51 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" t="s">
         <v>70</v>
-      </c>
-      <c r="H24" t="s">
-        <v>73</v>
-      </c>
-      <c r="I24" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H25" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" t="s">
         <v>75</v>
-      </c>
-      <c r="I25" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s">
         <v>79</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>80</v>
-      </c>
-      <c r="I26" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -1152,11 +1214,14 @@
       <c r="D27" t="b">
         <v>1</v>
       </c>
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
       <c r="G27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1164,10 +1229,10 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -1175,10 +1240,10 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -1186,10 +1251,10 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I30">
         <v>3</v>
@@ -1197,7 +1262,7 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -1205,11 +1270,14 @@
       <c r="D31" t="b">
         <v>1</v>
       </c>
+      <c r="E31" t="s">
+        <v>99</v>
+      </c>
       <c r="G31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1217,24 +1285,80 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I33">
         <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G37" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" t="s">
+        <v>95</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Configs/Datas/__enums__.xlsx
+++ b/Luban/Configs/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E05079-D515-4AD0-BDF8-FE793ED1606C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C0F8A4-FB5B-4022-ADF5-1AFAB69FF40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20290" yWindow="1050" windowWidth="22700" windowHeight="11210" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,10 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标记单位卡类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>标记Effect类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -422,6 +418,18 @@
   </si>
   <si>
     <t>Buff重载标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记卡牌类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,11 +499,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -849,13 +857,13 @@
       <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -905,7 +913,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -1003,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
         <v>34</v>
@@ -1038,327 +1046,338 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="G14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="b">
+      <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
         <v>44</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H15" t="s">
         <v>45</v>
       </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14">
+      <c r="I15">
         <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" t="s">
         <v>51</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>52</v>
       </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18">
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19">
         <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G20" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G21" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="H21" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G22" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H22" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I22">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G23" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" t="s">
-        <v>68</v>
+        <v>76</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G24" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G25" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="H25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I25" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s">
         <v>78</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I27" t="s">
         <v>79</v>
       </c>
-      <c r="I26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" t="b">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" t="s">
-        <v>73</v>
-      </c>
-      <c r="I27">
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28">
         <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G28" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" t="s">
-        <v>58</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" t="b">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D31" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" t="s">
         <v>81</v>
       </c>
-      <c r="H31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I31">
+      <c r="I32">
         <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G32" t="s">
-        <v>85</v>
-      </c>
-      <c r="H32" t="s">
-        <v>83</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" t="s">
+        <v>83</v>
+      </c>
+      <c r="I34">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" t="s">
         <v>89</v>
       </c>
-      <c r="C34" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>100</v>
-      </c>
-      <c r="G34" t="s">
-        <v>61</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G36" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G35" s="4" t="s">
+      <c r="H36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G37" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H37" t="s">
         <v>93</v>
       </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G36" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="I37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" t="s">
         <v>94</v>
       </c>
-      <c r="I36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G37" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="I38" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Configs/Datas/__enums__.xlsx
+++ b/Luban/Configs/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C0F8A4-FB5B-4022-ADF5-1AFAB69FF40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53517978-1CAE-401A-B587-8D68ECD03330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="113">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,6 +430,46 @@
   </si>
   <si>
     <t>魔法卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.RoundTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记回合时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnRoundStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnRound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnRoundEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -819,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1002,7 +1042,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -1011,46 +1051,46 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
+        <v>104</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G12" t="s">
-        <v>35</v>
+      <c r="G12" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G13" t="s">
-        <v>36</v>
+      <c r="G13" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="I13">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G14" t="s">
-        <v>101</v>
+      <c r="G14" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="H14" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="I14">
         <v>3</v>
@@ -1058,7 +1098,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -1067,13 +1107,13 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1081,10 +1121,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G16" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1092,10 +1132,10 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G17" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1103,10 +1143,10 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G18" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="H18" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="I18">
         <v>3</v>
@@ -1114,22 +1154,22 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1137,10 +1177,10 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G20" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1148,10 +1188,10 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G21" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -1159,129 +1199,129 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G22" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>96</v>
+      </c>
       <c r="G23" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="I23">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
-        <v>70</v>
-      </c>
-      <c r="I24" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G25" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="H25" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25" t="s">
-        <v>69</v>
+        <v>40</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H26" t="s">
-        <v>73</v>
-      </c>
-      <c r="I26" t="s">
-        <v>74</v>
+        <v>66</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>97</v>
-      </c>
       <c r="G28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H28" t="s">
-        <v>72</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="I28" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G29" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="H29" t="s">
-        <v>57</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="I29" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I30">
-        <v>2</v>
+        <v>73</v>
+      </c>
+      <c r="I30" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G31" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s">
-        <v>59</v>
-      </c>
-      <c r="I31">
-        <v>3</v>
+        <v>78</v>
+      </c>
+      <c r="I31" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -1290,13 +1330,13 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G32" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H32" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1304,10 +1344,10 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G33" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="H33" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -1315,68 +1355,124 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G34" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="H34" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="I34">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+      <c r="G35" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>88</v>
       </c>
-      <c r="C35" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
         <v>99</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G39" t="s">
         <v>60</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H39" t="s">
         <v>89</v>
       </c>
-      <c r="I35">
+      <c r="I39">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G36" s="3" t="s">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G40" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H40" t="s">
         <v>92</v>
       </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G37" s="3" t="s">
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G41" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H41" t="s">
         <v>93</v>
       </c>
-      <c r="I37">
+      <c r="I41">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G38" s="3" t="s">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G42" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H42" t="s">
         <v>94</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>95</v>
       </c>
     </row>

--- a/Luban/Configs/Datas/__enums__.xlsx
+++ b/Luban/Configs/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53517978-1CAE-401A-B587-8D68ECD03330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA37C8AA-14EE-4C1E-B50F-4F267F374CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="27730" windowHeight="14620" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="121">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -470,6 +470,38 @@
   </si>
   <si>
     <t>默认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level.UnlockType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记关卡解锁条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -859,18 +891,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="11.75" customWidth="1"/>
@@ -878,7 +910,7 @@
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -905,7 +937,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -925,7 +957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -951,7 +983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>86</v>
       </c>
@@ -974,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
@@ -985,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G6" s="1" t="s">
         <v>22</v>
       </c>
@@ -996,7 +1028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1007,7 +1039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1018,7 +1050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1029,7 +1061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G10" s="2" t="s">
         <v>39</v>
       </c>
@@ -1040,7 +1072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>103</v>
       </c>
@@ -1063,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G12" s="2" t="s">
         <v>105</v>
       </c>
@@ -1074,7 +1106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G13" s="2" t="s">
         <v>106</v>
       </c>
@@ -1085,7 +1117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G14" s="2" t="s">
         <v>107</v>
       </c>
@@ -1096,7 +1128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>33</v>
       </c>
@@ -1119,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G16" t="s">
         <v>35</v>
       </c>
@@ -1130,7 +1162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G17" t="s">
         <v>36</v>
       </c>
@@ -1141,7 +1173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G18" t="s">
         <v>101</v>
       </c>
@@ -1152,7 +1184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1175,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G20" t="s">
         <v>46</v>
       </c>
@@ -1186,7 +1218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G21" t="s">
         <v>48</v>
       </c>
@@ -1197,7 +1229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G22" t="s">
         <v>50</v>
       </c>
@@ -1208,7 +1240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>52</v>
       </c>
@@ -1231,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G24" t="s">
         <v>61</v>
       </c>
@@ -1242,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G25" t="s">
         <v>36</v>
       </c>
@@ -1253,7 +1285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G26" t="s">
         <v>63</v>
       </c>
@@ -1264,7 +1296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G27" t="s">
         <v>75</v>
       </c>
@@ -1275,7 +1307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G28" t="s">
         <v>62</v>
       </c>
@@ -1286,7 +1318,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G29" t="s">
         <v>68</v>
       </c>
@@ -1297,7 +1329,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G30" t="s">
         <v>56</v>
       </c>
@@ -1308,7 +1340,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G31" t="s">
         <v>77</v>
       </c>
@@ -1319,7 +1351,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>53</v>
       </c>
@@ -1342,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G33" t="s">
         <v>54</v>
       </c>
@@ -1353,7 +1385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G34" t="s">
         <v>55</v>
       </c>
@@ -1364,7 +1396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G35" t="s">
         <v>56</v>
       </c>
@@ -1375,7 +1407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>87</v>
       </c>
@@ -1398,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G37" t="s">
         <v>84</v>
       </c>
@@ -1409,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G38" t="s">
         <v>85</v>
       </c>
@@ -1420,7 +1452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>88</v>
       </c>
@@ -1443,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G40" s="3" t="s">
         <v>90</v>
       </c>
@@ -1454,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G41" s="3" t="s">
         <v>91</v>
       </c>
@@ -1465,7 +1497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G42" s="3" t="s">
         <v>56</v>
       </c>
@@ -1474,6 +1506,51 @@
       </c>
       <c r="I42" s="3" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H43" t="s">
+        <v>117</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G44" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H44" t="s">
+        <v>118</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G45" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H45" t="s">
+        <v>119</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
